--- a/TableStructure.xlsx
+++ b/TableStructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaviT\Desktop\Kumar\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AparnaK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="84">
   <si>
     <t>Table Name</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>is_approved</t>
+  </si>
+  <si>
+    <t>approval_id</t>
   </si>
 </sst>
 </file>
@@ -311,16 +314,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,12 +620,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -639,7 +642,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -653,7 +656,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -662,7 +665,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -671,7 +674,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -680,7 +683,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -689,7 +692,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -698,7 +701,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -707,7 +710,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -716,7 +719,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -725,7 +728,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -737,7 +740,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -749,7 +752,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>78</v>
       </c>
@@ -758,7 +761,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>80</v>
       </c>
@@ -767,7 +770,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -781,7 +784,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -790,7 +793,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -799,7 +802,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -808,7 +811,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -820,7 +823,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -832,7 +835,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>78</v>
       </c>
@@ -841,7 +844,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>80</v>
       </c>
@@ -850,7 +853,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
@@ -864,7 +867,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -873,7 +876,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -882,7 +885,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -891,7 +894,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>78</v>
       </c>
@@ -900,7 +903,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>80</v>
       </c>
@@ -909,10 +912,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B34" t="s">
@@ -926,7 +929,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -935,7 +938,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -944,7 +947,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>15</v>
       </c>
@@ -953,7 +956,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>40</v>
       </c>
@@ -962,7 +965,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>78</v>
       </c>
@@ -971,7 +974,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>80</v>
       </c>
@@ -980,439 +983,442 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
         <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" t="s">
-        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
         <v>78</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>71</v>
       </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" t="s">
         <v>24</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s">
         <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
-        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="2"/>
       <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" t="s">
         <v>43</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" t="s">
         <v>51</v>
       </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
         <v>80</v>
       </c>
-      <c r="C65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>44</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>48</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>30</v>
       </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="C72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>50</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
       <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" t="s">
         <v>78</v>
       </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" t="s">
         <v>80</v>
       </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>52</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>49</v>
       </c>
-      <c r="C84" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>53</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
         <v>78</v>
       </c>
-      <c r="C86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
         <v>80</v>
       </c>
-      <c r="C87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>54</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>55</v>
       </c>
-      <c r="C89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1420,251 +1426,270 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>49</v>
       </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" t="s">
         <v>78</v>
       </c>
-      <c r="C94" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>62</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>56</v>
       </c>
-      <c r="C97" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
       <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" t="s">
         <v>78</v>
       </c>
-      <c r="C100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" t="s">
         <v>80</v>
       </c>
-      <c r="C101" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>64</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>65</v>
       </c>
-      <c r="C103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>64</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" t="s">
         <v>78</v>
       </c>
-      <c r="C105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" t="s">
         <v>80</v>
       </c>
-      <c r="C106" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>72</v>
       </c>
-      <c r="C108" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>66</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>55</v>
       </c>
-      <c r="C109" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>69</v>
       </c>
-      <c r="C111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" t="s">
         <v>78</v>
       </c>
-      <c r="C112" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C113" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>67</v>
+      <c r="C114" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>82</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" t="s">
         <v>78</v>
       </c>
-      <c r="C119" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" t="s">
+      <c r="C121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" t="s">
         <v>80</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A59:A64"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A43:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
